--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject46.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject46.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.85821795482134378</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -233,13 +233,13 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
       </c>
       <c r="AL1" s="0">
-        <v>0</v>
+        <v>0.50920423681426463</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.57729916346795196</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.60720715273264358</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.85758217296061467</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>0</v>
+        <v>0.64998253459357369</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -535,15 +535,15 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.72854118836313808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.96267177339478338</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.80489970083390117</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>0.83293908751143264</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.58232765193799829</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>0</v>
+        <v>0.76286139918335638</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.80079667188665882</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.64301231653844027</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -881,16 +881,16 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.73678773894666771</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.66251817311900774</v>
       </c>
       <c r="AW4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0</v>
+        <v>0.89874638818508978</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.59578113266766231</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.96118925737456185</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.86187752146455343</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.68487121503618686</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.90131211015272295</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="0">
-        <v>0</v>
+        <v>0.85375166185845575</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>0</v>
+        <v>0.60299097935085433</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.70910371634808833</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.57268804259010153</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1275,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>0</v>
+        <v>0.78481553816873362</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.52402621347136025</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.69270850572404929</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.72578544462811512</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.9638955874190378</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="0">
-        <v>0</v>
+        <v>0.82463194400654283</v>
       </c>
       <c r="AB7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.85048798295132699</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.54110131779790727</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.94931379610446165</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>0</v>
+        <v>0.68198870285586499</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.69315588080562984</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.92038081400196636</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0</v>
+        <v>0.64748509314689517</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="0">
-        <v>0</v>
+        <v>0.9464923583537056</v>
       </c>
       <c r="BD9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.70843560059028543</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.71878943460968114</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.6240250659358888</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2212,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.741755447523476</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.81175765546388168</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.67358181921579119</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.58845473360375899</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.94651156359217681</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.55988146388679239</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>0.97106161797215185</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.54752264732626388</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.60366964752243812</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0</v>
+        <v>0.87243854873643711</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.55947853201835307</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.78676861275109722</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>0</v>
+        <v>0.95948540681475514</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>0</v>
+        <v>0.62575352733622203</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.63273024359572394</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.5625737407410476</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>0.92134436359804717</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>0</v>
+        <v>0.70983593718492499</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.78354446398409217</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.95336253965760764</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.59358607819229481</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.80493482841359543</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0</v>
+        <v>0.52809880903211748</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.52955166143224197</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.67845309841906221</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.6100879142811344</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.62616703641066762</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>0</v>
+        <v>0.9001753852895964</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>0</v>
+        <v>0.65521249070548682</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.85928028298014703</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>0</v>
+        <v>0.57227014623458994</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -4093,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.5236494984779313</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0</v>
+        <v>0.72131402727508176</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>0.86868982097382097</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.67791968327050101</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.70286659426832365</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.50186332425305391</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="0">
-        <v>0</v>
+        <v>0.82787614406564991</v>
       </c>
       <c r="BM21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0</v>
+        <v>0.76838315738091634</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.69711222863161193</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.67657139250912623</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.55728811387989796</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>0.67267047173127004</v>
       </c>
       <c r="C23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.75534449464515141</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.87098155134856903</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.88412748011257825</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.80668768077472341</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.5867499305360766</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.82401186470400223</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.93794433839331326</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.90738075238089033</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.88486469624049358</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.59848169152193709</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.86248191641907601</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>0</v>
+        <v>0.96926231101456328</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="AS25" s="0">
-        <v>0</v>
+        <v>0.60178761541946379</v>
       </c>
       <c r="AT25" s="0">
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>0</v>
+        <v>0.61240339852279879</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.696717932328485</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.6528105351848752</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.66601098759594102</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0</v>
+        <v>0.81504093036741665</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>0</v>
+        <v>0.96538344837385248</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.96162023824859921</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.72544601930755803</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.86608058710428559</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0</v>
+        <v>0.59973408199001721</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0</v>
+        <v>0.5199598992135801</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.63366317563968755</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.9468801405548819</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.86024657842129382</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.72241699876782073</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0</v>
+        <v>0.75828188973505661</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>0.68894039821656139</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.6690589859127154</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.90196463378083225</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.52022788502148687</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.59365176714916235</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.61555581216151745</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.96060333375331131</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.68863980930526392</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.67778506966291252</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0</v>
+        <v>0.61097011800456191</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.7262017605458142</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>0</v>
+        <v>0.98365721005878415</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.97802534485521964</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.74504279093572578</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.52586123708430998</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>0</v>
+        <v>0.88102074207113024</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.65254110769484686</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.88576401124137905</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.87054148328416137</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.85386856300140535</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.9818075412402214</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.74833472706971094</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.57946404100711224</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.85552944254688978</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.66204523718395403</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>0</v>
+        <v>0.77602550003190474</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.84967618042475401</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.5248049940669739</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.60098740966918651</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.84798110527988768</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.52397257141893894</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.70509231357658564</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7733,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0</v>
+        <v>0.59079420595721421</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.77615387543125292</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.64523299730242634</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.83780032450714303</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.87479677245709109</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>0.69826918965589302</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.9803960913334322</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.68245695596813905</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.55477245729590541</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>0</v>
+        <v>0.65929491565976595</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0</v>
+        <v>0.66797911369766538</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.99028747378876458</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.54765931800211431</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="0">
-        <v>0</v>
+        <v>0.9684149663965278</v>
       </c>
       <c r="BO40" s="0">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="0">
-        <v>0</v>
+        <v>0.74585144905849554</v>
       </c>
       <c r="I41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.96443037717170688</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0">
-        <v>0</v>
+        <v>0.71006235124559036</v>
       </c>
       <c r="T42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.54066971829426902</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.78513641812978929</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.94287931627625998</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.67750750815436933</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.5684922273764923</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.77755391337318236</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.54127590278999094</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.87859358698767354</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.91824341423780509</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.57491493396258297</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="0">
-        <v>0</v>
+        <v>0.82307328807585267</v>
       </c>
       <c r="Z45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.59832575565746282</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.53762036359327992</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.84327415275822881</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.52356066122107781</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0</v>
+        <v>0.54302931658700726</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.9287613124237839</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.83820638130610758</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.88290460414567851</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.96289807519487991</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9610,13 +9610,13 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
       </c>
       <c r="E47" s="0">
-        <v>0</v>
+        <v>0.93524677049177241</v>
       </c>
       <c r="F47" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>0.83150706562051369</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9739,16 +9739,16 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.81039553336036907</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.96187154259635577</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>0.57612797550562034</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.5836297503269402</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.64780997956103559</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0">
-        <v>0</v>
+        <v>0.79949968641885727</v>
       </c>
       <c r="S49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.52648282999472473</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.70718109705788357</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.50540527696657334</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.84406887566515842</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>0</v>
+        <v>0.84034074893192612</v>
       </c>
       <c r="U50" s="0">
         <v>0</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.99697809420561034</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.64206187514979529</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.50576110102379368</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.66149136593249569</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.88321419887396058</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.62932177207432538</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.83012465831291515</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.6634423871264985</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.64078331371216157</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.53153539669169003</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.71251460673474787</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.57455654649250798</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.97355389584771368</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>0</v>
+        <v>0.50436173807078788</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.63358413687583326</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.92825612215266329</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.5939228748781441</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>0</v>
+        <v>0.65007709923061308</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11199,16 +11199,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.9516598318939099</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.86277259478128032</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0</v>
+        <v>0.59793125338147013</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>0</v>
+        <v>0.76062115663606789</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.8055050260790233</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.72612494594190502</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11620,16 +11620,16 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.93179553658915926</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.7861827983543499</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.73587398396865789</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>0</v>
+        <v>0.87751796354689149</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.71671328832683034</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.60719465135621165</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.99527199509888153</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.60512577151449176</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.9302046963416114</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.622100006554833</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.52340508682150833</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12247,16 +12247,16 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.82460980250527105</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.83017860033506174</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.83789211955282039</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12321,10 +12321,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>0</v>
+        <v>0.63648968969817876</v>
       </c>
       <c r="O60" s="0">
-        <v>0</v>
+        <v>0.92476781833703314</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.51974285623538397</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.90767020937543696</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.98599731382535927</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.75370748894905903</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.82851829978259661</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.97963742443882373</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.76661967697273647</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0</v>
+        <v>0.60281810932572577</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.95478632553437515</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.99250765559260934</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.82663736658941966</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="AH63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="0">
         <v>0</v>
@@ -13080,22 +13080,22 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.94858052690445593</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.55321545282100471</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.87290762587813675</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
-        <v>0</v>
+        <v>0.69686385571895526</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>0</v>
+        <v>0.80525991781359896</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.93591455919167266</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.96620699366302687</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.96144535580780666</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.90204968552217446</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.96264977992770095</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.73900375901870496</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.64241369898232081</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.71435996274755031</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0</v>
+        <v>0.78327333142631639</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>0</v>
+        <v>0.92295519137580062</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13704,10 +13704,10 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0</v>
+        <v>0.56967105692307873</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.80439682081221964</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,21 +13716,21 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.53570865941382562</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.62135013575410647</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.73929509203742794</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.95895845458509399</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.78274753097222183</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.64048263070741318</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.50195230012014957</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject46.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject46.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.85821795482134378</v>
+        <v>0.96267177339478338</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -239,7 +239,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="0">
-        <v>0.50920423681426463</v>
+        <v>0.59079420595721421</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.57729916346795196</v>
+        <v>0.62135013575410647</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.60720715273264358</v>
+        <v>0.95895845458509399</v>
       </c>
     </row>
     <row r="2">
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0">
-        <v>0.64998253459357369</v>
+        <v>0.67267047173127004</v>
       </c>
       <c r="X2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.72854118836313808</v>
+        <v>0.78274753097222183</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0.83293908751143264</v>
+        <v>0.86868982097382097</v>
       </c>
       <c r="V3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0.58232765193799829</v>
+        <v>0.97355389584771368</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>0.76286139918335638</v>
+        <v>0.87751796354689149</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.80079667188665882</v>
+        <v>0.85758217296061467</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.64301231653844027</v>
+        <v>0.96118925737456185</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.59578113266766231</v>
+        <v>0.80489970083390117</v>
       </c>
       <c r="D5" s="0">
         <v>0.96118925737456185</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="0">
-        <v>0.85375166185845575</v>
+        <v>0.93524677049177241</v>
       </c>
       <c r="AV5" s="0">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>0.60299097935085433</v>
+        <v>0.65007709923061308</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.70910371634808833</v>
+        <v>0.86187752146455343</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.57268804259010153</v>
+        <v>0.69270850572404929</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.52402621347136025</v>
+        <v>0.68487121503618686</v>
       </c>
       <c r="F7" s="0">
         <v>0.69270850572404929</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.72578544462811512</v>
+        <v>0.85048798295132699</v>
       </c>
       <c r="I7" s="0">
         <v>0.9638955874190378</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.54110131779790727</v>
+        <v>0.92038081400196636</v>
       </c>
       <c r="J8" s="0">
         <v>0.94931379610446165</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="0">
-        <v>0.68198870285586499</v>
+        <v>0.74585144905849554</v>
       </c>
       <c r="AP8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.69315588080562984</v>
+        <v>0.9638955874190378</v>
       </c>
       <c r="H9" s="0">
         <v>0.92038081400196636</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.64748509314689517</v>
+        <v>0.68894039821656139</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.70843560059028543</v>
+        <v>0.94931379610446165</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.71878943460968114</v>
+        <v>0.741755447523476</v>
       </c>
       <c r="L10" s="0">
         <v>0.6240250659358888</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.81175765546388168</v>
+        <v>0.94651156359217681</v>
       </c>
       <c r="M11" s="0">
         <v>0.67358181921579119</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.58845473360375899</v>
+        <v>0.6240250659358888</v>
       </c>
       <c r="K12" s="0">
         <v>0.94651156359217681</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.54752264732626388</v>
+        <v>0.67358181921579119</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.55947853201835307</v>
+        <v>0.55988146388679239</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>0.62575352733622203</v>
+        <v>0.63648968969817876</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0.63273024359572394</v>
+        <v>0.90131211015272295</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.5625737407410476</v>
+        <v>0.60366964752243812</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>0.70983593718492499</v>
+        <v>0.92476781833703314</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.78354446398409217</v>
+        <v>0.78676861275109722</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0.95336253965760764</v>
       </c>
       <c r="R16" s="0">
-        <v>0.59358607819229481</v>
+        <v>0.6100879142811344</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>0.52809880903211748</v>
+        <v>0.88102074207113024</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.52955166143224197</v>
+        <v>0.95336253965760764</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0.6100879142811344</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.62616703641066762</v>
+        <v>0.67845309841906221</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="0">
-        <v>0.65521249070548682</v>
+        <v>0.79949968641885727</v>
       </c>
       <c r="AX18" s="0">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="0">
-        <v>0.57227014623458994</v>
+        <v>0.71006235124559036</v>
       </c>
       <c r="AQ19" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.5236494984779313</v>
+        <v>0.70286659426832365</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0.72131402727508176</v>
+        <v>0.84034074893192612</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.67791968327050101</v>
+        <v>0.85928028298014703</v>
       </c>
       <c r="T21" s="0">
         <v>0.70286659426832365</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>0.50186332425305391</v>
+        <v>0.75534449464515141</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0.76838315738091634</v>
+        <v>0.87243854873643711</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.69711222863161193</v>
+        <v>0.87098155134856903</v>
       </c>
       <c r="X22" s="0">
         <v>0.67657139250912623</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0.55728811387989796</v>
+        <v>0.96264977992770095</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0.88412748011257825</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.80668768077472341</v>
+        <v>0.88486469624049358</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.5867499305360766</v>
+        <v>0.67657139250912623</v>
       </c>
       <c r="W24" s="0">
-        <v>0.82401186470400223</v>
+        <v>0.88412748011257825</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0.88486469624049358</v>
       </c>
       <c r="X25" s="0">
-        <v>0.59848169152193709</v>
+        <v>0.93794433839331326</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.86248191641907601</v>
+        <v>0.96162023824859921</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="AS25" s="0">
-        <v>0.60178761541946379</v>
+        <v>0.82307328807585267</v>
       </c>
       <c r="AT25" s="0">
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>0.61240339852279879</v>
+        <v>0.83150706562051369</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.696717932328485</v>
+        <v>0.90738075238089033</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.6528105351848752</v>
+        <v>0.72544601930755803</v>
       </c>
       <c r="AB26" s="0">
         <v>0.66601098759594102</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="0">
-        <v>0.81504093036741665</v>
+        <v>0.82463194400654283</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>0.96538344837385248</v>
+        <v>0.97106161797215185</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.86608058710428559</v>
+        <v>0.9468801405548819</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.59973408199001721</v>
+        <v>0.66797911369766538</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>0.5199598992135801</v>
+        <v>0.95948540681475514</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.63366317563968755</v>
+        <v>0.66601098759594102</v>
       </c>
       <c r="AA28" s="0">
         <v>0.9468801405548819</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0.75828188973505661</v>
+        <v>0.77602550003190474</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.6690589859127154</v>
+        <v>0.86024657842129382</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.90196463378083225</v>
+        <v>0.96060333375331131</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0.52022788502148687</v>
+        <v>0.73900375901870496</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="0">
-        <v>0.59365176714916235</v>
+        <v>0.80493482841359543</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.61555581216151745</v>
+        <v>0.72241699876782073</v>
       </c>
       <c r="AC30" s="0">
         <v>0.96060333375331131</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.68863980930526392</v>
+        <v>0.7262017605458142</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.67778506966291252</v>
+        <v>0.97802534485521964</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0.61097011800456191</v>
+        <v>0.92134436359804717</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.74504279093572578</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.52586123708430998</v>
+        <v>0.87054148328416137</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.65254110769484686</v>
+        <v>0.74504279093572578</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.74833472706971094</v>
+        <v>0.88576401124137905</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.57946404100711224</v>
+        <v>0.85386856300140535</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.85552944254688978</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.66204523718395403</v>
+        <v>0.84798110527988768</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.84967618042475401</v>
+        <v>0.9818075412402214</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.5248049940669739</v>
+        <v>0.85552944254688978</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.60098740966918651</v>
+        <v>0.77615387543125292</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.52397257141893894</v>
+        <v>0.64523299730242634</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.70509231357658564</v>
+        <v>0.9803960913334322</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0.83780032450714303</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.87479677245709109</v>
+        <v>0.99028747378876458</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0.69826918965589302</v>
+        <v>0.96926231101456328</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0.9803960913334322</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.68245695596813905</v>
+        <v>0.83780032450714303</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>0.65929491565976595</v>
+        <v>0.78481553816873362</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0.99028747378876458</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.54765931800211431</v>
+        <v>0.55477245729590541</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.54066971829426902</v>
+        <v>0.67750750815436933</v>
       </c>
       <c r="AR42" s="0">
         <v>0.78513641812978929</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.94287931627625998</v>
+        <v>0.96443037717170688</v>
       </c>
       <c r="AP43" s="0">
         <v>0.67750750815436933</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.5684922273764923</v>
+        <v>0.87859358698767354</v>
       </c>
       <c r="AS43" s="0">
         <v>0.77755391337318236</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.54127590278999094</v>
+        <v>0.78513641812978929</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.87859358698767354</v>
@@ -9121,7 +9121,7 @@
         <v>0.91824341423780509</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.57491493396258297</v>
+        <v>0.9287613124237839</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.59832575565746282</v>
+        <v>0.77755391337318236</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.53762036359327992</v>
+        <v>0.91824341423780509</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0.52356066122107781</v>
+        <v>0.73678773894666771</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0.54302931658700726</v>
+        <v>0.9001753852895964</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.9287613124237839</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.83820638130610758</v>
+        <v>0.84327415275822881</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.81039553336036907</v>
+        <v>0.88290460414567851</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0.57612797550562034</v>
+        <v>0.66251817311900774</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.5836297503269402</v>
+        <v>0.96289807519487991</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.64780997956103559</v>
+        <v>0.70718109705788357</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.52648282999472473</v>
+        <v>0.96187154259635577</v>
       </c>
       <c r="AV49" s="0">
         <v>0.70718109705788357</v>
@@ -10163,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.50540527696657334</v>
+        <v>0.99697809420561034</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.84406887566515842</v>
+        <v>0.88321419887396058</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.64206187514979529</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.50576110102379368</v>
+        <v>0.64078331371216157</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.88321419887396058</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.62932177207432538</v>
+        <v>0.64206187514979529</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0.64078331371216157</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.53153539669169003</v>
+        <v>0.83012465831291515</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.71251460673474787</v>
+        <v>0.92825612215266329</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.57455654649250798</v>
+        <v>0.9516598318939099</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>0.50436173807078788</v>
+        <v>0.98365721005878415</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.63358413687583326</v>
+        <v>0.6634423871264985</v>
       </c>
       <c r="AZ53" s="0">
         <v>0.92825612215266329</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.5939228748781441</v>
+        <v>0.86277259478128032</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0.59793125338147013</v>
+        <v>0.60281810932572577</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>0.76062115663606789</v>
+        <v>0.9464923583537056</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.8055050260790233</v>
+        <v>0.93179553658915926</v>
       </c>
       <c r="BE55" s="0">
         <v>0.72612494594190502</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.71671328832683034</v>
+        <v>0.72612494594190502</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.60719465135621165</v>
+        <v>0.7861827983543499</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.60512577151449176</v>
+        <v>0.73587398396865789</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.9302046963416114</v>
+        <v>0.99527199509888153</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.622100006554833</v>
+        <v>0.82460980250527105</v>
       </c>
       <c r="BH58" s="0">
         <v>0.52340508682150833</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.83017860033506174</v>
+        <v>0.90767020937543696</v>
       </c>
       <c r="BI59" s="0">
         <v>0.83789211955282039</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.51974285623538397</v>
+        <v>0.52340508682150833</v>
       </c>
       <c r="BG60" s="0">
         <v>0.90767020937543696</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.75370748894905903</v>
+        <v>0.83789211955282039</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.82851829978259661</v>
+        <v>0.98599731382535927</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0.97963742443882373</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.76661967697273647</v>
+        <v>0.94858052690445593</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.95478632553437515</v>
+        <v>0.97963742443882373</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.99250765559260934</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.82663736658941966</v>
+        <v>0.93591455919167266</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13083,13 +13083,13 @@
         <v>0.94858052690445593</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.55321545282100471</v>
+        <v>0.99250765559260934</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.87290762587813675</v>
+        <v>0.96620699366302687</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="0">
-        <v>0.80525991781359896</v>
+        <v>0.82787614406564991</v>
       </c>
       <c r="V64" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0.64241369898232081</v>
+        <v>0.66149136593249569</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.71435996274755031</v>
+        <v>0.96144535580780666</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0.78327333142631639</v>
+        <v>0.89874638818508978</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="AN66" s="0">
-        <v>0.92295519137580062</v>
+        <v>0.9684149663965278</v>
       </c>
       <c r="AO66" s="0">
         <v>0</v>
@@ -13704,10 +13704,10 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0.56967105692307873</v>
+        <v>0.69686385571895526</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.80439682081221964</v>
+        <v>0.90204968552217446</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.53570865941382562</v>
+        <v>0.64048263070741318</v>
       </c>
     </row>
     <row r="67">
@@ -14128,7 +14128,7 @@
         <v>0.64048263070741318</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.50195230012014957</v>
+        <v>0.73929509203742794</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
